--- a/injury_data_updated.xlsx
+++ b/injury_data_updated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>INJURY_TYPE</t>
+          <t>TYPE</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>OCURRENCE_CONTEXT</t>
+          <t>OCCURRENCE_CONTEXT</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -561,92 +561,97 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>PREVIOUS_RETURN_DATE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PREVIOUS_CONTRALATERAL_INJURY</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>PREVIOUS_CONTRALATERAL_INURY_RETURN_DATE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>REFEREE_SANCTION</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_EXAMINATION</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_EXAMINATION_DATE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>DIAGNOSIS</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>SURGERY</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>PLAYER_SUBSTITUTION</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>PLAYER_SUBSTITUTION_TIME</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>REVIEW_SYSTEM</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>CONCUSSION_DOMAINS</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>PREVIOUS_CONTRALATERAL_INJURY</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>BRACING</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ACL_REPAIR</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>MCL_REPAIR</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>ACL_REPAIR_SPECIFICATION</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>MCL_REPAIR_SPECIFICATION</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>OTHER_COMMENTS</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>UPDATED_AT</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>OCCURRENCE</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>RE_INJURY</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>MENSTRUAL_PHASE</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>ORAL_CONTRACEPTIVES</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>HORMONAL_CONTRACEPTIVES</t>
         </is>
       </c>
     </row>
@@ -681,327 +686,1434 @@
           <t>2006-05-28</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Chest, Forearm, Knee</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Arthritis/synovitis/capsulitis, Haematoma/contusion/bruise (incl. compartment syndrome), Other</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Europa Conference League</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Yes, indirect contact (to other body part)</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Landing (incl. jumping)</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Jumped onto other Player</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Opponent foul</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Ultrasonography</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>2005-06-25</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Broken leg</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>2025-10-28 11:32:07</t>
-        </is>
-      </c>
+      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>2025-10-30 10:24:23</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FCB, Neymar 28-05-2025, Head.docx</t>
+          <t>FC Bayern, Harry Kane 29-05-2006, Injury.pdf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HEAD</t>
+          <t>INJURY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Neymar</t>
+          <t>Max Mustermann</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FCB</t>
+          <t>FC Bayern</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2006-05-24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-06-25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>2006-05-28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Chest, Forearm, Knee</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Arthritis/synovitis/capsulitis, Haematoma/contusion/bruise (incl. compartment syndrome), Other</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Europa Conference League</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Yes, indirect contact (to other body part)</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Landing (incl. jumping)</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Jumped onto other Player</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Opponent foul</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Ultrasonography</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>2005-06-25</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Broken leg</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>2025-10-28 11:32:07</t>
-        </is>
-      </c>
+      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>2025-10-30 10:24:25</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Knee filled.docx</t>
+          <t>FCB, Neymar 28-05-2025, Head.docx</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KNEE</t>
+          <t>HEAD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>KNEE INJURED PLAYER</t>
+          <t>Neymar</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>FCB</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1999-04-23</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-08-23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Left, Nose</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Concussion, Mild Traumatic Brain Injury (TBI) with abnormality on MRI: TBI Injury, Other</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Other cup match, Other training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Sudden onset</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Yes, with opponent</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Shoulder, Cornerflag</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Collision</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Header</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Opponent foul</t>
+        </is>
+      </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>2025-10-28 11:32:07</t>
-        </is>
-      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>General fatigue (e.g. low energy…), Something</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>2025-10-30 10:24:25</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lower Extremity filled.docx</t>
+          <t>FCB, Neymar 28-05-2025, Head.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LOWER_EXTREMITIES</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>HEAD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Neymar</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>FCB</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Left, Nose</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Concussion, Mild Traumatic Brain Injury (TBI) with abnormality on MRI: TBI Injury, Other</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Other cup match, Other training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Sudden onset</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Yes, with opponent</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Shoulder, Cornerflag</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Collision</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Header</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Opponent foul</t>
+        </is>
+      </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>2025-10-28 11:32:07</t>
-        </is>
-      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>General fatigue (e.g. low energy...), Something</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>2025-10-30 10:24:28</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Miami, Messi 27-10-2025, Illness.docx</t>
+          <t>FCZ, Player 12-12-2024, Lower.docx</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ILLNESS</t>
+          <t>LOWER_EXTREMITIES</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Test_NAME</t>
+          <t>LEG INJURED PLAYER</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>FCZ</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>Wrong date format</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Adductor longus, Foot</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Right, Left</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Middle</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Intramuscular tendon rupture/tear/strain</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Fatigue-induced muscle disorder, Delayed onset muscle soreness</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Reserve/youth team training</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Gradual onset</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Yes, indirect contact (to other body part)</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Heading, Sliding/stretching</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Slide Tackle</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Arthroscopy, MRI</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>2025-12-18, Wrong date format</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Leg injury</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>2025-10-28 11:32:07</t>
-        </is>
-      </c>
+      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>2025-10-30 10:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FCZ, Player 12-12-2024, Lower.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LOWER_EXTREMITIES</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LEG INJURED PLAYER</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FCZ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Adductor longus, Foot</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Right, Left</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Middle</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Intramuscular tendon rupture/tear/strain</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Fatigue-induced muscle disorder, Delayed onset muscle soreness</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Reserve/youth team training</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Gradual onset</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Yes, indirect contact (to other body part)</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Heading, Sliding/stretching</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Slide Tackle</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Arthroscopy, MRI</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>2025-12-18, Wrong date format</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Leg injury</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>2025-10-30 10:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Miami, Messi 27-10-2025, Illness.docx</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ILLNESS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Test_NAME</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Infection in other organs/body parts, Headache, migraine, or nausea, Sickness</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Dental</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Cold</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>2025-10-30 10:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Miami, Messi 27-10-2025, Illness.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ILLNESS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Test_NAME</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Infection in other organs/body parts, Headache, migraine, or nausea, Sickness</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Dental</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Cold</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>2025-10-30 10:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PSG, Vitinha 23-04-2025, Knee.docx</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>KNEE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>KNEE INJURED PLAYER</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1999-04-23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-08-23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Right, Bilateral</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>MCL</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Grade 1, Grade 2</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Football &amp; other training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism)</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Yes, indirect contact (to other body part)</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Hit by ball, Other player action</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Opponent foul, Own foul</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Fractured</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>LET/ALL, Other</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>Synthetic, Other</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>LET1, Other reconstruction</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>Synthetic MCL</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>2025-10-30 10:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PSG, Vitinha 23-04-2025, Knee.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>KNEE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>KNEE INJURED PLAYER</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1999-04-23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-08-23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Right, Bilateral</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>MCL</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Grade 1, Grade 2</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Football &amp; other training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism)</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Yes, indirect contact (to other body part)</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Hit by ball, Other player action</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Opponent foul, Own foul</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Fractured</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>LET/ALL, Other</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>Synthetic, Other</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>LET1, Other reconstruction</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>Synthetic MCL</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>2025-10-30 10:24:33</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/injury_data_updated.xlsx
+++ b/injury_data_updated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR11"/>
+  <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,217 +441,217 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>UPDATED_AT</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>FORM_TYPE</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>TEAM</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>INJURY_DATE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>RETURN_DATE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>INJURY_LOCATION</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>INJURY_SIDE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>INJURY_SITE</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>TYPE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AFFECTED_ORGAN</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>INJURY_CLASSIFICATION</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ACL_GRADING</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>MCL_GRADING</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>OCCURRENCE_ONSET_TYPE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>OCCURRENCE_MATCH_MINUTE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>OCCURRENCE_CONTEXT</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>OVERUSE_TRAUMA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>ONSET</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>HEADER_DUEL</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>CONTACT</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>CONTACT_POINT</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ACTION</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>ACTION_DESCRIPTION</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>RECURRENCE</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>PREVIOUS_RETURN_DATE</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>PREVIOUS_CONTRALATERAL_INJURY</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>PREVIOUS_CONTRALATERAL_INURY_RETURN_DATE</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>REFEREE_SANCTION</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_EXAMINATION</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_EXAMINATION_DATE</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>DIAGNOSIS</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>SURGERY</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>PLAYER_SUBSTITUTION</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>PLAYER_SUBSTITUTION_TIME</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>REVIEW_SYSTEM</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>CONCUSSION_DOMAINS</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>BRACING</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>ACL_REPAIR</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>MCL_REPAIR</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>ACL_REPAIR_SPECIFICATION</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>MCL_REPAIR_SPECIFICATION</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>OTHER_COMMENTS</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>UPDATED_AT</t>
         </is>
       </c>
     </row>
@@ -663,121 +663,125 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2025-11-03 14:04:53</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>INJURY</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Max Mustermann</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>FC Bayern</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2006-05-24</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2006-05-28</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Chest, Forearm, Knee</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Arthritis/synovitis/capsulitis, Haematoma/contusion/bruise (incl. compartment syndrome), Other</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Europa Conference League</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
         <is>
           <t>Yes, indirect contact (to other body part)</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
         <is>
           <t>Landing (incl. jumping)</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Jumped onto other Player</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr">
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Opponent foul</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>Ultrasonography</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2005-06-25</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>Broken leg</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
@@ -786,14 +790,10 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr">
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>2025-10-30 10:24:23</t>
         </is>
       </c>
     </row>
@@ -805,121 +805,125 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2025-11-03 14:04:53</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>INJURY</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Max Mustermann</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>FC Bayern</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2006-05-24</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2006-05-28</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chest, Forearm, Knee</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Arthritis/synovitis/capsulitis, Haematoma/contusion/bruise (incl. compartment syndrome), Other</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Europa Conference League</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
         <is>
           <t>Yes, indirect contact (to other body part)</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
         <is>
           <t>Landing (incl. jumping)</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Jumped onto other Player</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr">
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr">
         <is>
           <t>Opponent foul</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>Ultrasonography</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>2005-06-25</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>Broken leg</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
@@ -928,155 +932,147 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr">
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>2025-10-30 10:24:25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FCB, Neymar 28-05-2025, Head.docx</t>
+          <t>FC Bayern, Harry Kane 29-05-2006, Injury filled.docx</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HEAD</t>
+          <t>2025-11-03 14:04:53</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Neymar</t>
+          <t>INJURY</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FCB</t>
+          <t>Max Mustermann</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>FC Bayern</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wrong date format</t>
+          <t>2006-05-24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Left, Nose</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Concussion, Mild Traumatic Brain Injury (TBI) with abnormality on MRI: TBI Injury, Other</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>2006-05-28</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Neck, Shoulder, Hand, Lower leg (incl. Achilles tendon), Chest, Upper arm, Hip, Ankle, Thoracic spine, Elbow, Groin, Foot, Abdomen, Forearm, Thigh, Other injury, Lumbosacral, Wrist, Knee</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Right, Left, Bilateral/central</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Abrasion, Joint dislocation/subluxation, Other bone injury (e.g., bone stress injury), Arthritis/synovitis/capsulitis, Joint sprain (i.e., ligament/capsule), Overuse unspecified, Bursitis, Laceration, Tendon rupture/tendinopathy, Cartilage lesion, Muscle rupture/tear/strain, Vessel injury (excl. skin haematoma), Fracture (Specify if stress fracture), Haematoma/contusion/bruise (incl. compartment syndrome), Nerve injury (central or peripheral other than concussion), Other type</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>Too many answers</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Other cup match, Other training, Reserve/youth team match</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>Football training, Football &amp; other training, Champions League, Other cup match, Other training, Reserve/youth team training, Europa League, Friendly match, National team, League match, Europa Conference League, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Sudden onset</t>
-        </is>
-      </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Yes, with opponent</t>
-        </is>
-      </c>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Shoulder, Cornerflag</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Collision</t>
-        </is>
-      </c>
+          <t>Yes, indirect contact (to other body part), No</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Header</t>
+          <t>Running/sprinting, Heading, Controlling the ball, Tackling other player, Blocked, Twisting/turning, Landing (incl. jumping), Hit by ball, Tackled by other player, Use of arm/elbow, Shooting/passing, Falling (incl. diving), Collision, Sliding/stretching, Other player action</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Jumped onto other Player</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Wrong date format</t>
+          <t>Too many answers</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Opponent foul</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>No foul, Yellow card, Opponent foul, Red card, Own foul</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Clinical only, Ultrasonography, Arthroscopy, X-ray, MRI, Diagnosically checked for all types of thing. I just need a long message.</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>2005-06-25, Wrong date format, 2025-05-16, 2025-08-12</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Broken leg</t>
+        </is>
+      </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>General fatigue (e.g. low energy…), Something</t>
-        </is>
-      </c>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
@@ -1085,148 +1081,144 @@
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>2025-10-30 10:24:25</t>
+          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FCB, Neymar 28-05-2025, Head.pdf</t>
+          <t>FC Bayern, Harry Kane 29-05-2006, Injury filled.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HEAD</t>
+          <t>2025-11-03 14:04:54</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Neymar</t>
+          <t>INJURY</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FCB</t>
+          <t>Max Mustermann</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>FC Bayern</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Wrong date format</t>
+          <t>2006-05-24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Left, Nose</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Concussion, Mild Traumatic Brain Injury (TBI) with abnormality on MRI: TBI Injury, Other</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>2006-05-28</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Neck, Shoulder, Hand, Lower leg (incl. Achilles tendon), Chest, Upper arm, Hip, Ankle, Thoracic spine, Elbow, Groin, Foot, Abdomen, Forearm, Thigh, Lumbosacral, Wrist, Knee, Other injury</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Right, Left, Bilateral/central</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Abrasion, Joint dislocation/subluxation, Other bone injury (e.g., bone stress injury), Arthritis/synovitis/capsulitis, Joint sprain (i.e., ligament/capsule), Overuse unspecified, Bursitis, Laceration, Tendon rupture/tendinopathy, Cartilage lesion, Muscle rupture/tear/strain, Vessel injury (excl. skin haematoma), Fracture (Specify if stress fracture), Haematoma/contusion/bruise (incl. compartment syndrome), Nerve injury (central or peripheral other than concussion), Other type</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>Too many answers</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Other cup match, Other training, Reserve/youth team match</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>Football training, Football &amp; other training, Champions League, Other cup match, Other training, Reserve/youth team training, Europa League, Friendly match, National team, League match, Europa Conference League, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Sudden onset</t>
-        </is>
-      </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Yes, with opponent</t>
-        </is>
-      </c>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Shoulder, Cornerflag</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Collision</t>
-        </is>
-      </c>
+          <t>Yes, indirect contact (to other body part), No</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Header</t>
+          <t>Running/sprinting, Controlling the ball, Tackling other player, Twisting/turning, Landing (incl. jumping), Hit by ball, Tackled by other player, Use of arm/elbow, Shooting/passing, Falling (incl. diving), Collision, Sliding/stretching, Other player action</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Jumped onto other Player</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Wrong date format</t>
+          <t>Too many answers</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Opponent foul</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>No foul, Yellow card, Opponent foul, Red card, Own foul</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Clinical only, Ultrasonography, Arthroscopy, X-ray, MRI, Diagnosically checked for all types of thing. I just need a long message.</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>2005-06-25, Wrong date format, 2025-05-16, 2025-08-12</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Broken leg</t>
+        </is>
+      </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>General fatigue (e.g. low energy...), Something</t>
-        </is>
-      </c>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
@@ -1235,883 +1227,2255 @@
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>2025-10-30 10:24:28</t>
+          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FCZ, Player 12-12-2024, Lower.docx</t>
+          <t>FCB, Neymar 28-05-2025, Head.docx</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LOWER_EXTREMITIES</t>
+          <t>2025-11-03 14:04:54</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEG INJURED PLAYER</t>
+          <t>HEAD</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FCZ</t>
+          <t>Neymar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>FCB</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Wrong date format</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Wrong date format</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Adductor longus, Foot</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Right, Left</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Middle</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Intramuscular tendon rupture/tear/strain</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Fatigue-induced muscle disorder, Delayed onset muscle soreness</t>
-        </is>
-      </c>
+          <t>Left, Nose</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Concussion, Mild Traumatic Brain Injury (TBI) with abnormality on MRI: TBI Injury, Other</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Reserve/youth team training</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>Other cup match, Other training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Gradual onset</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Sudden onset</t>
+        </is>
+      </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Yes, indirect contact (to other body part)</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Yes, with opponent</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Heading, Sliding/stretching</t>
+          <t>Shoulder, Cornerflag</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Slide Tackle</t>
+          <t>Collision</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>Header</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>Wrong date format</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>No foul, Opponent foul</t>
-        </is>
-      </c>
+      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>Arthroscopy, MRI</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>2025-12-18, Wrong date format</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>Leg injury</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
+          <t>Opponent foul</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>General fatigue (e.g. low energy…), Something</t>
+        </is>
+      </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>2025-10-30 10:24:28</t>
-        </is>
-      </c>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FCZ, Player 12-12-2024, Lower.pdf</t>
+          <t>FCB, Neymar 28-05-2025, Head.pdf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LOWER_EXTREMITIES</t>
+          <t>2025-11-03 14:04:54</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEG INJURED PLAYER</t>
+          <t>HEAD</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FCZ</t>
+          <t>Neymar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>FCB</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Wrong date format</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Wrong date format</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Adductor longus, Foot</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Right, Left</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Middle</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Intramuscular tendon rupture/tear/strain</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Fatigue-induced muscle disorder, Delayed onset muscle soreness</t>
-        </is>
-      </c>
+          <t>Left, Nose</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Concussion, Mild Traumatic Brain Injury (TBI) with abnormality on MRI: TBI Injury, Other</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Reserve/youth team training</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Gradual onset</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
+          <t>Other cup match, Other training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Sudden onset</t>
+        </is>
+      </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Yes, indirect contact (to other body part)</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Yes, with opponent</t>
+        </is>
+      </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Heading, Sliding/stretching</t>
+          <t>Shoulder, Cornerflag</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Slide Tackle</t>
+          <t>Collision</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
+          <t>Header</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>Wrong date format</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>No foul, Opponent foul</t>
-        </is>
-      </c>
+      <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Arthroscopy, MRI</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>2025-12-18, Wrong date format</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>Leg injury</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+          <t>Opponent foul</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>General fatigue (e.g. low energy…), Something</t>
+        </is>
+      </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>2025-10-30 10:24:29</t>
-        </is>
-      </c>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Miami, Messi 27-10-2025, Illness.docx</t>
+          <t>FCB, Neymar 28-05-2025, Head filled.docx</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ILLNESS</t>
+          <t>2025-11-03 14:04:54</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Test_NAME</t>
+          <t>HEAD</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Neymar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>FCB</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Left, Face (eyes &amp; below), Temporal, Cervical, Right, Frontal, Parietal, Ear(s), Midline, Middle / Central, Occipital, Nose</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Infection in other organs/body parts, Headache, migraine, or nausea, Sickness</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Dental</t>
+          <t>Contusion, Fracture, Laceration, Concussion, Dental, Mild Traumatic Brain Injury (TBI) with abnormality on MRI: TBI Injury, Moderate TBI, Severe TBI, Other type</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Football training, Football &amp; other training, Champions League, Other cup match, Other training, Reserve/youth team training, Europa League, Friendly match, National team, League match, Europa Conference League, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>No, Yes, with opponent, Yes, with teammate, Yes, with object</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Head, Shoulder, Knee, Other body part, Goalpost, Pitch / Surface, Ball, intended header, Ball, unintended, Cornerflag</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Heading, Controlling the ball, Tackling other player, Blocked, Twisting/turning, Landing (incl. jumping), Hit by ball, Tackled by other player, Use of arm/elbow, Shooting/passing, Falling (incl. diving), Collision, Sliding/stretching, Other player action</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Header</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>Too many answers</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>No foul, Yellow card, Opponent foul, Red card, Own foul</t>
+        </is>
+      </c>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>Cold</t>
-        </is>
-      </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
       <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>Cognition (e.g. confusion, difficulties remembering…), Headache/Migraine (e.g. head/neck pain, sensitivity to light / noise…), General fatigue (e.g. low energy…), Anxiety/Mood (e.g. sadness, irritability, emotional…), Vestibular (e.g. balance problems, dizziness…), Ocular (e.g. blurry or double vision etc..), Something</t>
+        </is>
+      </c>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>2025-10-30 10:24:29</t>
-        </is>
-      </c>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Miami, Messi 27-10-2025, Illness.pdf</t>
+          <t>FCB, Neymar 28-05-2025, Head filled.pdf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ILLNESS</t>
+          <t>2025-11-03 14:04:55</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Test_NAME</t>
+          <t>HEAD</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Neymar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>FCB</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Left, Temporal, Cervical, Right, Parietal, Ear(s), Midline, Middle / Central, Occipital, Nose</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Infection in other organs/body parts, Headache, migraine, or nausea, Sickness</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Dental</t>
+          <t>Contusion, Fracture, Laceration, Concussion, Dental, Mild Traumatic Brain Injury (TBI) with abnormality on MRI: TBI Injury, Moderate TBI, Severe TBI, Other type</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Football training, Football &amp; other training, Champions League, Other cup match, Other training, Reserve/youth team training, Europa League, Friendly match, National team, League match, Europa Conference League, Reserve/youth team match</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>No, Yes, with opponent, Yes, with teammate, Yes, with object</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Head, Shoulder, Knee, Other body part, Goalpost, Pitch / Surface, Ball, intended header, Ball, unintended, Cornerflag</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Heading, Controlling the ball, Tackling other player, Blocked, Twisting/turning, Hit by ball, Tackled by other player, Use of arm/elbow, Shooting/passing, Collision, Sliding/stretching, Other player action</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Header</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>Too many answers</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul, Red card, Own foul</t>
+        </is>
+      </c>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>Cold</t>
-        </is>
-      </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>Cognition (e.g. confusion, difficulties remembering…), Headache/Migraine (e.g. head/neck pain, sensitivity to light / noise…), General fatigue (e.g. low energy…), Anxiety/Mood (e.g. sadness, irritability, emotional…), Vestibular (e.g. balance problems, dizziness…), Ocular (e.g. blurry or double vision etc..), Something</t>
+        </is>
+      </c>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>2025-10-30 10:24:31</t>
-        </is>
-      </c>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PSG, Vitinha 23-04-2025, Knee.docx</t>
+          <t>FCZ, Player 12-12-2024, Lower.docx</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KNEE</t>
+          <t>2025-11-03 14:04:55</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>KNEE INJURED PLAYER</t>
+          <t>LOWER_EXTREMITIES</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>LEG INJURED PLAYER</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1999-04-23</t>
+          <t>FCZ</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-08-23</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Right, Bilateral</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>MCL</t>
-        </is>
-      </c>
+          <t>Adductor longus, Foot</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Right, Left</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Middle</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Intramuscular tendon rupture/tear/strain</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Grade 1, Grade 2</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
+          <t>Fatigue-induced muscle disorder, Delayed onset muscle soreness</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Too many answers</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Football &amp; other training, Reserve/youth team match</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Overuse (Repetitive mechanism)</t>
+          <t>Reserve/youth team training</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Gradual onset</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
         <is>
           <t>Yes, indirect contact (to other body part)</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Running/sprinting, Hit by ball, Other player action</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Running</t>
+          <t>Heading, Sliding/stretching</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
+          <t>Slide Tackle</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>2020-04-23</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>Arthroscopy, MRI</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>2025-12-18, Wrong date format</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>Leg injury</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Opponent foul, Own foul</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>MRI</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>2021-06-23</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>Fractured</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>LET/ALL, Other</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>Synthetic, Other</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>LET1, Other reconstruction</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>Synthetic MCL</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>2025-10-30 10:24:31</t>
+          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PSG, Vitinha 23-04-2025, Knee.pdf</t>
+          <t>FCZ, Player 12-12-2024, Lower.pdf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KNEE</t>
+          <t>2025-11-03 14:04:55</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>KNEE INJURED PLAYER</t>
+          <t>LOWER_EXTREMITIES</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>LEG INJURED PLAYER</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1999-04-23</t>
+          <t>FCZ</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-08-23</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Right, Bilateral</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>MCL</t>
-        </is>
-      </c>
+          <t>Adductor longus, Foot</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Right, Left</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Middle</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Intramuscular tendon rupture/tear/strain</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Grade 1, Grade 2</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
+          <t>Fatigue-induced muscle disorder, Delayed onset muscle soreness</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Football &amp; other training, Reserve/youth team match</t>
-        </is>
-      </c>
+          <t>N/A (Gradual onset injury)</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Overuse (Repetitive mechanism)</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
+          <t>Reserve/youth team training</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
         <is>
           <t>Yes, indirect contact (to other body part)</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>Running/sprinting, Hit by ball, Other player action</t>
-        </is>
-      </c>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Running</t>
+          <t>Heading, Sliding/stretching</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
+          <t>Slide Tackle</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>2020-04-23</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>Arthroscopy, MRI</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>2025-12-18, Wrong date format</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>Leg injury</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Opponent foul, Own foul</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>MRI</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>2021-06-23</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>Fractured</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr">
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FCZ, Player 12-12-2024, Lower variant.docx</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-11-03 14:04:55</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LOWER_EXTREMITIES</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LEG INJURED PLAYER</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>FCZ</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Adductor longus, Gracilis, Foot</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Right, Bilateral</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Distal</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Hypertonia/spasm/trigger points</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Neuromuscular muscle disorder - muscle related</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Reserve/youth team training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Sudden onset</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Heading, Other player action</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Slide Tackle</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>Arthroscopy, MRI</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>2025-12-18, Wrong date format</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>Leg injury</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FCZ, Player 12-12-2024, Lower variant.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-11-03 14:04:56</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LOWER_EXTREMITIES</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LEG INJURED PLAYER</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FCZ</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Adductor longus, Gracilis, Foot</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Right, Bilateral</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Distal</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Hypertonia/spasm/trigger points</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Neuromuscular muscle disorder - muscle related</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Reserve/youth team training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Heading</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Slide Tackle</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>Arthroscopy, MRI</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>2025-12-18, Wrong date format</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>Leg injury</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Miami, Messi 27-10-2025, Illness.docx</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-11-03 14:04:56</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ILLNESS</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Test_NAME</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Infection in other organs/body parts, Headache, migraine, or nausea, Sickness</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Dental</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>Cold</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Miami, Messi 27-10-2025, Illness.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-11-03 14:04:56</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ILLNESS</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Test_NAME</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Infection in other organs/body parts, Headache, migraine, or nausea, Sickness</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Dental</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>Cold</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Miami, Messi 27-10-2025, Illness variant.docx</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-11-03 14:04:56</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ILLNESS</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Test_NAME</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Unexplained fatigue, malaise or fever, Sickness</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Immunological, Check what happens if the comment is very long and extends to another line</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>Check what happens if the comment is very long and extends to another line</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>Check what happens if the comment is very long and extends to another line</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Miami, Messi 27-10-2025, Illness variant.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-11-03 14:04:56</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ILLNESS</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Test_NAME</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Unexplained fatigue, malaise or fever, Sickness</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Immunological</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>Check what happens if the comment is very long and extends to 
+another line</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>Check what happens if the comment is very long and extends to</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PSG, Vitinha 23-04-2025, Knee.docx</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-11-03 14:04:56</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>KNEE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KNEE INJURED PLAYER</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1999-04-23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2021-08-23</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Right, Bilateral</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>MCL</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Grade 1, Grade 2</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Football &amp; other training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism)</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Yes, indirect contact (to other body part)</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Hit by ball, Other player action</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Opponent foul, Own foul</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>Fractured</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>LET/ALL, Other</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>Synthetic, Other</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>LET1, Other reconstruction</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>Synthetic MCL</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AR18" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>2025-10-30 10:24:33</t>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PSG, Vitinha 23-04-2025, Knee.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-11-03 14:04:57</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>KNEE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KNEE INJURED PLAYER</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1999-04-23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2021-08-23</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Right, Bilateral</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>MCL</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Grade 1, Grade 2</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Football &amp; other training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Yes, indirect contact (to other body part)</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Other player action</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Opponent foul, Own foul</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>Fractured</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>LET/ALL, Other</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Synthetic, Other</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>LET1, Other reconstruction</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>Synthetic MCL</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PSG, Vitinha 23-04-2025, Knee variant.docx</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-11-03 14:04:57</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>KNEE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KNEE INJURED PLAYER</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1999-04-23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2021-08-23</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Bilateral</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>MCL, Cartilage PF, Injury combination</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Grade 3</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Football &amp; other training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Sudden onset</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Yes, direct contact (to injured body part), Yes, indirect contact (to other body part), No</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Sliding/stretching, Other player action</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>Opponent foul, Own foul</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>Ultrasonography, Arthroscopy, X-ray, MRI</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>Fractured</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>LET/ALL, Allograft, Other</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>No repair/reconstruction, Synthetic, Other</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>Check what happens if the comment is very long and extends to another line, Other reconstruction</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>Synthetic Check what happens if the comment is very long and extends to another lineMCL, Check what happens if the comment is very long and extends to another line</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PSG, Vitinha 23-04-2025, Knee variant.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-11-03 14:04:57</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>KNEE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KNEE INJURED PLAYER</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1999-04-23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2021-08-23</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Bilateral</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>MCL, Cartilage PF, Injury combination</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Football &amp; other training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Yes, direct contact (to injured body part), Yes, indirect contact (to other body part), No</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Sliding/stretching, Other player action</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>Opponent foul, Own foul</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>Ultrasonography, Arthroscopy, X-ray, MRI</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>Fractured</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>LET/ALL, Allograft, Other</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>No repair/reconstruction, Synthetic, Other</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>Check 
+what happens if the comment 
+is very long and extends to 
+another line, Other reconstruction</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>Synthetic Check what 
+happens if the comment is 
+very long and extends to 
+another lineMCL, Check what happens if the comment is very 
+long and extends to another line</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
